--- a/ResultadoEleicoesDistritos/CASTELO BRANCO_COVILHÃ.xlsx
+++ b/ResultadoEleicoesDistritos/CASTELO BRANCO_COVILHÃ.xlsx
@@ -597,64 +597,64 @@
         <v>12975</v>
       </c>
       <c r="H2" t="n">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="I2" t="n">
-        <v>1302</v>
+        <v>1320</v>
       </c>
       <c r="J2" t="n">
         <v>5300</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L2" t="n">
-        <v>1499</v>
+        <v>1405</v>
       </c>
       <c r="M2" t="n">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="N2" t="n">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R2" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="S2" t="n">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="T2" t="n">
-        <v>890</v>
+        <v>964</v>
       </c>
       <c r="U2" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V2" t="n">
-        <v>8281</v>
+        <v>8298</v>
       </c>
       <c r="W2" t="n">
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>8389</v>
+        <v>8306</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA2" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
